--- a/guitar_midi_notes.xlsx
+++ b/guitar_midi_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulas/PycharmProjects/guitar-riff-pathfinding-ai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B814EE-BDD5-CF47-99E3-335A52D267E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16179B9A-23D5-D348-B937-FBA70E4EA245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12900" yWindow="3960" windowWidth="28060" windowHeight="18540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,72 +208,27 @@
     <t>Lowest Open String</t>
   </si>
   <si>
-    <t>F#2 / Gb2</t>
-  </si>
-  <si>
-    <t>G#2 / Ab2</t>
-  </si>
-  <si>
     <t>Open String</t>
   </si>
   <si>
-    <t>A#2 / Bb2</t>
-  </si>
-  <si>
-    <t>C#3 / Db3</t>
-  </si>
-  <si>
     <t>(5, 4)</t>
   </si>
   <si>
-    <t>D#3 / Eb3</t>
-  </si>
-  <si>
-    <t>F#3 / Gb3</t>
-  </si>
-  <si>
-    <t>G#3 / Ab3</t>
-  </si>
-  <si>
-    <t>A#3 / Bb3</t>
-  </si>
-  <si>
     <t>(2, 1)</t>
   </si>
   <si>
-    <t>C#4 / Db4</t>
-  </si>
-  <si>
-    <t>D#4 / Eb4</t>
-  </si>
-  <si>
     <t>(1, 0)</t>
   </si>
   <si>
     <t>Highest Open String</t>
   </si>
   <si>
-    <t>F#4 / Gb4</t>
-  </si>
-  <si>
-    <t>G#4 / Ab4</t>
-  </si>
-  <si>
-    <t>A#4 / Bb4</t>
-  </si>
-  <si>
-    <t>C#5 / Db5</t>
-  </si>
-  <si>
     <t>(1, 9)</t>
   </si>
   <si>
     <t>(1, 10)</t>
   </si>
   <si>
-    <t>D#5 / Eb5</t>
-  </si>
-  <si>
     <t>(1, 11)</t>
   </si>
   <si>
@@ -289,27 +244,18 @@
     <t>(1, 13)</t>
   </si>
   <si>
-    <t>F#5 / Gb5</t>
-  </si>
-  <si>
     <t>(1, 14)</t>
   </si>
   <si>
     <t>(1, 15)</t>
   </si>
   <si>
-    <t>G#5 / Ab5</t>
-  </si>
-  <si>
     <t>(1, 16)</t>
   </si>
   <si>
     <t>(1, 17)</t>
   </si>
   <si>
-    <t>A#5 / Bb5</t>
-  </si>
-  <si>
     <t>(1, 18)</t>
   </si>
   <si>
@@ -325,9 +271,6 @@
     <t>(1, 20)</t>
   </si>
   <si>
-    <t>C#6 / Db6</t>
-  </si>
-  <si>
     <t>(1, 21)</t>
   </si>
   <si>
@@ -335,6 +278,63 @@
   </si>
   <si>
     <t>Maximum Range</t>
+  </si>
+  <si>
+    <t>F#2</t>
+  </si>
+  <si>
+    <t>G#2</t>
+  </si>
+  <si>
+    <t>A#2</t>
+  </si>
+  <si>
+    <t>C#3</t>
+  </si>
+  <si>
+    <t>D#3</t>
+  </si>
+  <si>
+    <t>F#3</t>
+  </si>
+  <si>
+    <t>G#3</t>
+  </si>
+  <si>
+    <t>A#3</t>
+  </si>
+  <si>
+    <t>C#4</t>
+  </si>
+  <si>
+    <t>D#4</t>
+  </si>
+  <si>
+    <t>F#4</t>
+  </si>
+  <si>
+    <t>G#4</t>
+  </si>
+  <si>
+    <t>A#4</t>
+  </si>
+  <si>
+    <t>C#5</t>
+  </si>
+  <si>
+    <t>D#5</t>
+  </si>
+  <si>
+    <t>F#5</t>
+  </si>
+  <si>
+    <t>G#5</t>
+  </si>
+  <si>
+    <t>C#6</t>
+  </si>
+  <si>
+    <t>A#5</t>
   </si>
 </sst>
 </file>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="170" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -763,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2">
         <v>42</v>
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2">
         <v>44</v>
@@ -817,7 +817,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -825,7 +825,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2">
         <v>46</v>
@@ -870,13 +870,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2">
         <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -894,7 +894,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -902,7 +902,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2">
         <v>51</v>
@@ -947,7 +947,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2">
         <v>54</v>
@@ -971,7 +971,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -979,7 +979,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2">
         <v>56</v>
@@ -1009,7 +1009,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2">
         <v>58</v>
@@ -1033,7 +1033,7 @@
         <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>17</v>
@@ -1058,7 +1058,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2">
         <v>61</v>
@@ -1088,7 +1088,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2">
         <v>63</v>
@@ -1109,10 +1109,10 @@
         <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1135,7 +1135,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2">
         <v>66</v>
@@ -1165,7 +1165,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2">
         <v>68</v>
@@ -1195,7 +1195,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C32" s="2">
         <v>70</v>
@@ -1240,13 +1240,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C35" s="2">
         <v>73</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -1261,7 +1261,7 @@
         <v>74</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -1270,13 +1270,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C37" s="2">
         <v>75</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E37" s="2"/>
     </row>
@@ -1291,10 +1291,10 @@
         <v>76</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1302,13 +1302,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C39" s="2">
         <v>77</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -1317,13 +1317,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C40" s="2">
         <v>78</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -1338,7 +1338,7 @@
         <v>79</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2"/>
     </row>
@@ -1347,13 +1347,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C42" s="2">
         <v>80</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2"/>
     </row>
@@ -1368,7 +1368,7 @@
         <v>81</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
     </row>
@@ -1377,13 +1377,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C44" s="2">
         <v>82</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2"/>
     </row>
@@ -1392,13 +1392,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C45" s="2">
         <v>83</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
     </row>
@@ -1407,13 +1407,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C46" s="2">
         <v>84</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2"/>
     </row>
@@ -1422,13 +1422,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2">
         <v>85</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2"/>
     </row>
@@ -1443,10 +1443,10 @@
         <v>86</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
